--- a/toy_data.xlsx
+++ b/toy_data.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clarkpg\Downloads\data_for_github\new data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE97D8A-E029-4BAF-A13F-9073811A6C99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -70,8 +76,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,15 +94,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -105,17 +117,206 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -123,24 +324,53 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -178,7 +408,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -212,6 +442,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -246,9 +477,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -421,232 +653,237 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="23.453125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="6">
         <v>1.8</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="7">
         <v>1.5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="7">
         <v>1.7</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="8">
         <v>1.2</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="9">
         <v>1.8</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
         <v>1.84081276283551</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="5">
         <v>1.7</v>
       </c>
-      <c r="E3">
-        <v>1.249001137947349</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="E3" s="10">
+        <v>1.2490011379473489</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="9">
         <v>1.8</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <v>1.921160985435459</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <v>1.7</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="10">
         <v>1.303378736178463</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="9">
         <v>1.8</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>1.93058945045595</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
         <v>1.7</v>
       </c>
-      <c r="E5">
-        <v>1.331365460054129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="E5" s="10">
+        <v>1.3313654600541289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="9">
         <v>1.8</v>
       </c>
-      <c r="C6">
-        <v>1.927075363234874</v>
-      </c>
-      <c r="D6">
+      <c r="C6" s="5">
+        <v>1.9270753632348741</v>
+      </c>
+      <c r="D6" s="5">
         <v>1.7</v>
       </c>
-      <c r="E6">
-        <v>1.342567120839875</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
+      <c r="E6" s="10">
+        <v>1.3425671208398751</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="9">
         <v>1.8</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <v>1.923785232614623</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <v>1.7</v>
       </c>
-      <c r="E7">
-        <v>1.34637016514117</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="E7" s="10">
+        <v>1.3463701651411699</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="9">
         <v>2.7</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <v>1.5</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>3.4</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="10">
         <v>2.4</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="9">
         <v>2.7</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="5">
         <v>2.067218510935716</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5">
         <v>3.4</v>
       </c>
-      <c r="E9">
-        <v>2.569401289216399</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
+      <c r="E9" s="10">
+        <v>2.5694012892163989</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="9">
         <v>2.7</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="5">
         <v>2.118082422211113</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5">
         <v>3.4</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="10">
         <v>2.715556410089822</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="9">
         <v>2.7</v>
       </c>
-      <c r="C11">
-        <v>2.099123366239321</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="5">
+        <v>2.0991233662393212</v>
+      </c>
+      <c r="D11" s="5">
         <v>3.399999999999999</v>
       </c>
-      <c r="E11">
-        <v>2.770263817204382</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
+      <c r="E11" s="10">
+        <v>2.7702638172043819</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="9">
         <v>2.7</v>
       </c>
-      <c r="C12">
-        <v>2.086926379559204</v>
-      </c>
-      <c r="D12">
+      <c r="C12" s="5">
+        <v>2.0869263795592041</v>
+      </c>
+      <c r="D12" s="5">
         <v>3.4</v>
       </c>
-      <c r="E12">
-        <v>2.78557279791412</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
+      <c r="E12" s="10">
+        <v>2.7855727979141198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="11">
         <v>2.7</v>
       </c>
-      <c r="C13">
-        <v>2.082600867823929</v>
-      </c>
-      <c r="D13">
-        <v>3.400000000000001</v>
-      </c>
-      <c r="E13">
-        <v>2.788961716873595</v>
+      <c r="C13" s="12">
+        <v>2.0826008678239289</v>
+      </c>
+      <c r="D13" s="12">
+        <v>3.4000000000000008</v>
+      </c>
+      <c r="E13" s="13">
+        <v>2.7889617168735952</v>
       </c>
     </row>
   </sheetData>
